--- a/data/pca/factorExposure/factorExposure_2016-10-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01665786430020393</v>
+        <v>-0.01311795667781331</v>
       </c>
       <c r="C2">
-        <v>-0.04577936348387323</v>
+        <v>0.04241669108493432</v>
       </c>
       <c r="D2">
-        <v>-0.03220492852121051</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05787234461563943</v>
+      </c>
+      <c r="E2">
+        <v>0.04991041217452415</v>
+      </c>
+      <c r="F2">
+        <v>0.08759560359229525</v>
+      </c>
+      <c r="G2">
+        <v>-0.02579752757717033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05699488122210267</v>
+        <v>-0.0326098100798345</v>
       </c>
       <c r="C3">
-        <v>-0.09560803770333486</v>
+        <v>0.08372017439793689</v>
       </c>
       <c r="D3">
-        <v>-0.06500828312451119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09824600270735373</v>
+      </c>
+      <c r="E3">
+        <v>0.07332020031606852</v>
+      </c>
+      <c r="F3">
+        <v>0.03152425068251614</v>
+      </c>
+      <c r="G3">
+        <v>0.05659700488180158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06348255995918063</v>
+        <v>-0.05577936542176856</v>
       </c>
       <c r="C4">
-        <v>-0.0587164689306155</v>
+        <v>0.06298962954144119</v>
       </c>
       <c r="D4">
-        <v>-0.02020053631494673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05946874580288106</v>
+      </c>
+      <c r="E4">
+        <v>0.04508259321387004</v>
+      </c>
+      <c r="F4">
+        <v>0.07833506277306791</v>
+      </c>
+      <c r="G4">
+        <v>0.0429092540274509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02875962455006315</v>
+        <v>-0.03428389820512416</v>
       </c>
       <c r="C6">
-        <v>-0.04339616966576199</v>
+        <v>0.03555997257228874</v>
       </c>
       <c r="D6">
-        <v>-0.0229400837261629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06530733855829098</v>
+      </c>
+      <c r="E6">
+        <v>0.05837463465135451</v>
+      </c>
+      <c r="F6">
+        <v>0.07054227598882998</v>
+      </c>
+      <c r="G6">
+        <v>0.02127494081600191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02404365631199681</v>
+        <v>-0.01991328201133583</v>
       </c>
       <c r="C7">
-        <v>-0.03791207075727648</v>
+        <v>0.03532523236336041</v>
       </c>
       <c r="D7">
-        <v>0.007464320097247501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0382323174786436</v>
+      </c>
+      <c r="E7">
+        <v>0.03305626909388394</v>
+      </c>
+      <c r="F7">
+        <v>0.1115647604968065</v>
+      </c>
+      <c r="G7">
+        <v>0.01320532255554465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0004607806584374981</v>
+        <v>-0.004621974698568529</v>
       </c>
       <c r="C8">
-        <v>-0.0116852743866201</v>
+        <v>0.02000840857547214</v>
       </c>
       <c r="D8">
-        <v>-0.02393228412288223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03610475141174621</v>
+      </c>
+      <c r="E8">
+        <v>0.03481533575277398</v>
+      </c>
+      <c r="F8">
+        <v>0.05557916016114067</v>
+      </c>
+      <c r="G8">
+        <v>0.01134283615902022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0283060225411641</v>
+        <v>-0.03486453678886138</v>
       </c>
       <c r="C9">
-        <v>-0.04105454000432968</v>
+        <v>0.04942090590241804</v>
       </c>
       <c r="D9">
-        <v>-0.01385025528179487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04378416687564488</v>
+      </c>
+      <c r="E9">
+        <v>0.03727704049878259</v>
+      </c>
+      <c r="F9">
+        <v>0.08710415926047228</v>
+      </c>
+      <c r="G9">
+        <v>0.02646167295554099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07519841469583496</v>
+        <v>-0.1022261142634451</v>
       </c>
       <c r="C10">
-        <v>0.1947583542727872</v>
+        <v>-0.189199003090171</v>
       </c>
       <c r="D10">
-        <v>-0.007039801756007499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.00147908488598343</v>
+      </c>
+      <c r="E10">
+        <v>0.04223134227944312</v>
+      </c>
+      <c r="F10">
+        <v>0.03899069229764808</v>
+      </c>
+      <c r="G10">
+        <v>0.007374570295167155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04195547819715895</v>
+        <v>-0.03531554757088987</v>
       </c>
       <c r="C11">
-        <v>-0.05402301551239225</v>
+        <v>0.05118982625419264</v>
       </c>
       <c r="D11">
-        <v>0.002858195488521485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03237791493489684</v>
+      </c>
+      <c r="E11">
+        <v>0.005255696400359972</v>
+      </c>
+      <c r="F11">
+        <v>0.06574518909294988</v>
+      </c>
+      <c r="G11">
+        <v>0.01860378170264044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03531989959997218</v>
+        <v>-0.03566931378612827</v>
       </c>
       <c r="C12">
-        <v>-0.0440194990230388</v>
+        <v>0.04632014111985983</v>
       </c>
       <c r="D12">
-        <v>0.001842583667548321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02520652253290452</v>
+      </c>
+      <c r="E12">
+        <v>0.01336363793910572</v>
+      </c>
+      <c r="F12">
+        <v>0.06676807824012475</v>
+      </c>
+      <c r="G12">
+        <v>0.01390261780219466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01083594828985933</v>
+        <v>-0.01125894942828324</v>
       </c>
       <c r="C13">
-        <v>-0.04375712134367397</v>
+        <v>0.04126296938834227</v>
       </c>
       <c r="D13">
-        <v>-0.02173515074759176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0643650865193381</v>
+      </c>
+      <c r="E13">
+        <v>0.06432337239907829</v>
+      </c>
+      <c r="F13">
+        <v>0.1163340585940279</v>
+      </c>
+      <c r="G13">
+        <v>0.02365323484161793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007214615516284024</v>
+        <v>-0.004862129390707983</v>
       </c>
       <c r="C14">
-        <v>-0.03229724571241404</v>
+        <v>0.02873895788086082</v>
       </c>
       <c r="D14">
-        <v>0.017321295800175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02956375137598841</v>
+      </c>
+      <c r="E14">
+        <v>0.02493943481348328</v>
+      </c>
+      <c r="F14">
+        <v>0.09758687517812631</v>
+      </c>
+      <c r="G14">
+        <v>-0.002356144609092059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001428771057533616</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.0008551762313773659</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.001706833641347366</v>
+      </c>
+      <c r="E15">
+        <v>-1.2188480140999e-05</v>
+      </c>
+      <c r="F15">
+        <v>0.0009413209654740146</v>
+      </c>
+      <c r="G15">
+        <v>-0.001091729087888479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03443664124353059</v>
+        <v>-0.03234213172627282</v>
       </c>
       <c r="C16">
-        <v>-0.03952911831613694</v>
+        <v>0.04495478076961768</v>
       </c>
       <c r="D16">
-        <v>-0.002933667148703281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02785537153141861</v>
+      </c>
+      <c r="E16">
+        <v>0.01878003254495818</v>
+      </c>
+      <c r="F16">
+        <v>0.06937218346697253</v>
+      </c>
+      <c r="G16">
+        <v>0.004785724718330135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.0312832061089386</v>
+        <v>-0.0170199644365674</v>
       </c>
       <c r="C19">
-        <v>-0.05898359769361648</v>
+        <v>0.05058764601523997</v>
       </c>
       <c r="D19">
-        <v>-0.06984116009277128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1035749525108232</v>
+      </c>
+      <c r="E19">
+        <v>0.08460785616399896</v>
+      </c>
+      <c r="F19">
+        <v>0.106381855095326</v>
+      </c>
+      <c r="G19">
+        <v>-0.01524481880125022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01503526751332967</v>
+        <v>-0.01284613562799436</v>
       </c>
       <c r="C20">
-        <v>-0.04326501799052644</v>
+        <v>0.03982457481656987</v>
       </c>
       <c r="D20">
-        <v>-0.01733389045591164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04096508694517754</v>
+      </c>
+      <c r="E20">
+        <v>0.05576867505064034</v>
+      </c>
+      <c r="F20">
+        <v>0.09204341891670567</v>
+      </c>
+      <c r="G20">
+        <v>0.009206369374291527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.009529793661038042</v>
+        <v>-0.006031666509839332</v>
       </c>
       <c r="C21">
-        <v>-0.04918501377457842</v>
+        <v>0.04194688470312796</v>
       </c>
       <c r="D21">
-        <v>-0.03845880595841557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07009669300131427</v>
+      </c>
+      <c r="E21">
+        <v>0.06664452204535753</v>
+      </c>
+      <c r="F21">
+        <v>0.132594917588884</v>
+      </c>
+      <c r="G21">
+        <v>0.009929404875043752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.002446209329551263</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01525194977104961</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03034232106612366</v>
+      </c>
+      <c r="E22">
+        <v>0.01242064803364263</v>
+      </c>
+      <c r="F22">
+        <v>0.01222620849335164</v>
+      </c>
+      <c r="G22">
+        <v>0.03501594434071617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.002495798110541373</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01522019193895914</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03003071505382959</v>
+      </c>
+      <c r="E23">
+        <v>0.01264057629331585</v>
+      </c>
+      <c r="F23">
+        <v>0.01192190569680886</v>
+      </c>
+      <c r="G23">
+        <v>0.03497327191972417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0298724321061605</v>
+        <v>-0.03121863456386095</v>
       </c>
       <c r="C24">
-        <v>-0.04610291707269179</v>
+        <v>0.05144470593842092</v>
       </c>
       <c r="D24">
-        <v>0.001958994194239361</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02598479144436833</v>
+      </c>
+      <c r="E24">
+        <v>0.01468220191385877</v>
+      </c>
+      <c r="F24">
+        <v>0.0759904318619256</v>
+      </c>
+      <c r="G24">
+        <v>0.01176202699276354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04697173238589439</v>
+        <v>-0.04111851466427093</v>
       </c>
       <c r="C25">
-        <v>-0.05654907014040413</v>
+        <v>0.05816336655909721</v>
       </c>
       <c r="D25">
-        <v>0.0143558136945647</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02442857102852527</v>
+      </c>
+      <c r="E25">
+        <v>0.01073827460545776</v>
+      </c>
+      <c r="F25">
+        <v>0.07809637900711117</v>
+      </c>
+      <c r="G25">
+        <v>0.02909208342156071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.009207212344305974</v>
+        <v>-0.01296737129743487</v>
       </c>
       <c r="C26">
-        <v>-0.01725232985886078</v>
+        <v>0.01589138597361843</v>
       </c>
       <c r="D26">
-        <v>-0.004563171386641454</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02505429287939201</v>
+      </c>
+      <c r="E26">
+        <v>0.02636220988445238</v>
+      </c>
+      <c r="F26">
+        <v>0.07557703610651598</v>
+      </c>
+      <c r="G26">
+        <v>-0.01002612966027592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08946282405349004</v>
+        <v>-0.1349090846122672</v>
       </c>
       <c r="C28">
-        <v>0.2242068010729795</v>
+        <v>-0.2371618221151305</v>
       </c>
       <c r="D28">
-        <v>-0.008293437216498599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01682693253603641</v>
+      </c>
+      <c r="E28">
+        <v>0.04243009883425292</v>
+      </c>
+      <c r="F28">
+        <v>0.04994308351713395</v>
+      </c>
+      <c r="G28">
+        <v>0.01884494398052453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01180750871943631</v>
+        <v>-0.00646695887545257</v>
       </c>
       <c r="C29">
-        <v>-0.02473485031106617</v>
+        <v>0.02499396602374065</v>
       </c>
       <c r="D29">
-        <v>0.01745905873825799</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01986174042397854</v>
+      </c>
+      <c r="E29">
+        <v>0.02769973717332351</v>
+      </c>
+      <c r="F29">
+        <v>0.08685051140234636</v>
+      </c>
+      <c r="G29">
+        <v>0.009053833643540907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.05003997114782859</v>
+        <v>-0.03760750945912009</v>
       </c>
       <c r="C30">
-        <v>-0.06640824495820259</v>
+        <v>0.05988702945378586</v>
       </c>
       <c r="D30">
-        <v>-0.04334479559976572</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1044492138834378</v>
+      </c>
+      <c r="E30">
+        <v>0.03628900683558756</v>
+      </c>
+      <c r="F30">
+        <v>0.100270241900806</v>
+      </c>
+      <c r="G30">
+        <v>-0.01441499178808672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04298327615089122</v>
+        <v>-0.05333904993210396</v>
       </c>
       <c r="C31">
-        <v>-0.03098096022651021</v>
+        <v>0.04859536197494355</v>
       </c>
       <c r="D31">
-        <v>0.02119115003142089</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.00445801505255829</v>
+      </c>
+      <c r="E31">
+        <v>0.04360020416055408</v>
+      </c>
+      <c r="F31">
+        <v>0.08216445604456085</v>
+      </c>
+      <c r="G31">
+        <v>0.04836132537015272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002656760590626755</v>
+        <v>-0.003035618985844714</v>
       </c>
       <c r="C32">
-        <v>-0.04646443181882693</v>
+        <v>0.02972238040134143</v>
       </c>
       <c r="D32">
-        <v>-0.02939528667347295</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0522113594246395</v>
+      </c>
+      <c r="E32">
+        <v>0.01965187597212962</v>
+      </c>
+      <c r="F32">
+        <v>0.07033628253094448</v>
+      </c>
+      <c r="G32">
+        <v>-0.008104857770992058</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.028319312933389</v>
+        <v>-0.02373400870048959</v>
       </c>
       <c r="C33">
-        <v>-0.06227761276053884</v>
+        <v>0.05234141170242524</v>
       </c>
       <c r="D33">
-        <v>-0.02556394917451544</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.081039026034863</v>
+      </c>
+      <c r="E33">
+        <v>0.04821648040468385</v>
+      </c>
+      <c r="F33">
+        <v>0.1293306714496074</v>
+      </c>
+      <c r="G33">
+        <v>0.0280872541326622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05103673108908265</v>
+        <v>-0.04055920932103382</v>
       </c>
       <c r="C34">
-        <v>-0.0541991385539034</v>
+        <v>0.06293287256336787</v>
       </c>
       <c r="D34">
-        <v>0.01173955356062198</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03279805927203734</v>
+      </c>
+      <c r="E34">
+        <v>-0.004316144830212681</v>
+      </c>
+      <c r="F34">
+        <v>0.07526134211087375</v>
+      </c>
+      <c r="G34">
+        <v>0.01680851545235989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008531520693620597</v>
+        <v>-0.01441529328467386</v>
       </c>
       <c r="C36">
-        <v>-0.01198620466210244</v>
+        <v>0.010488468607237</v>
       </c>
       <c r="D36">
-        <v>-0.003165185948100934</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02647979140326867</v>
+      </c>
+      <c r="E36">
+        <v>0.03372083177638172</v>
+      </c>
+      <c r="F36">
+        <v>0.08439966702677855</v>
+      </c>
+      <c r="G36">
+        <v>0.01489584664090704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03410293045035136</v>
+        <v>-0.0261959672214299</v>
       </c>
       <c r="C38">
-        <v>-0.02318447159526412</v>
+        <v>0.02378333666862079</v>
       </c>
       <c r="D38">
-        <v>0.001143972822701642</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02624909490622972</v>
+      </c>
+      <c r="E38">
+        <v>0.03489379681821254</v>
+      </c>
+      <c r="F38">
+        <v>0.07128005306982857</v>
+      </c>
+      <c r="G38">
+        <v>0.01159146360835267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04164789965709544</v>
+        <v>-0.03677970235311825</v>
       </c>
       <c r="C39">
-        <v>-0.07123407592118976</v>
+        <v>0.06685170378473849</v>
       </c>
       <c r="D39">
-        <v>-0.02188585512202808</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05061587530132775</v>
+      </c>
+      <c r="E39">
+        <v>0.01716588564802677</v>
+      </c>
+      <c r="F39">
+        <v>0.09193408999093557</v>
+      </c>
+      <c r="G39">
+        <v>-0.01219510526194953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01831231834065253</v>
+        <v>-0.01631811375641646</v>
       </c>
       <c r="C40">
-        <v>-0.0286578059202777</v>
+        <v>0.03651512786995473</v>
       </c>
       <c r="D40">
-        <v>-0.03774651680799358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03776717092098395</v>
+      </c>
+      <c r="E40">
+        <v>0.07102261847674919</v>
+      </c>
+      <c r="F40">
+        <v>0.09165088108392803</v>
+      </c>
+      <c r="G40">
+        <v>0.0513596002142698</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01016873024050517</v>
+        <v>-0.01786572132294769</v>
       </c>
       <c r="C41">
-        <v>-0.003607983055623116</v>
+        <v>0.003903604214382921</v>
       </c>
       <c r="D41">
-        <v>0.003656224903646806</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01802896087407801</v>
+      </c>
+      <c r="E41">
+        <v>0.03536727614285428</v>
+      </c>
+      <c r="F41">
+        <v>0.07417843634164295</v>
+      </c>
+      <c r="G41">
+        <v>0.007322212410590287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.00681948079483212</v>
+        <v>-0.003407817235021238</v>
       </c>
       <c r="C42">
-        <v>-0.0167647555893961</v>
+        <v>0.009412394991251469</v>
       </c>
       <c r="D42">
-        <v>-0.0007929065689916579</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.003023793704074382</v>
+      </c>
+      <c r="E42">
+        <v>0.006994300483324027</v>
+      </c>
+      <c r="F42">
+        <v>-0.01232467518310264</v>
+      </c>
+      <c r="G42">
+        <v>0.01166383471719262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03150825642122959</v>
+        <v>-0.03041845304972081</v>
       </c>
       <c r="C43">
-        <v>-0.01642557283476373</v>
+        <v>0.01925355244439901</v>
       </c>
       <c r="D43">
-        <v>-0.003729641116469046</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04106614158927317</v>
+      </c>
+      <c r="E43">
+        <v>0.0403128581378767</v>
+      </c>
+      <c r="F43">
+        <v>0.08898587530262032</v>
+      </c>
+      <c r="G43">
+        <v>0.02950487761429968</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02178797255548245</v>
+        <v>-0.01510801935762666</v>
       </c>
       <c r="C44">
-        <v>-0.05405185884403547</v>
+        <v>0.05097200984012899</v>
       </c>
       <c r="D44">
-        <v>-0.01643764098614759</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04130592616747312</v>
+      </c>
+      <c r="E44">
+        <v>0.05765844264839554</v>
+      </c>
+      <c r="F44">
+        <v>0.0966619010197535</v>
+      </c>
+      <c r="G44">
+        <v>0.003895468559490477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0001545570443672565</v>
+        <v>-0.006901835353545594</v>
       </c>
       <c r="C46">
-        <v>-0.01895312297089416</v>
+        <v>0.02274582706383546</v>
       </c>
       <c r="D46">
-        <v>0.01661995364451732</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01356571181367774</v>
+      </c>
+      <c r="E46">
+        <v>0.03158959591732369</v>
+      </c>
+      <c r="F46">
+        <v>0.1021838010875313</v>
+      </c>
+      <c r="G46">
+        <v>0.004992449139741735</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07764851897172746</v>
+        <v>-0.08506670075502154</v>
       </c>
       <c r="C47">
-        <v>-0.07084722418407458</v>
+        <v>0.07964900657432097</v>
       </c>
       <c r="D47">
-        <v>0.0157137162324085</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01319967593883815</v>
+      </c>
+      <c r="E47">
+        <v>0.04921009428644457</v>
+      </c>
+      <c r="F47">
+        <v>0.08041507483652656</v>
+      </c>
+      <c r="G47">
+        <v>0.05213062158556365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01965034597109719</v>
+        <v>-0.01568015882096219</v>
       </c>
       <c r="C48">
-        <v>-0.01069218811543423</v>
+        <v>0.01544653545516798</v>
       </c>
       <c r="D48">
-        <v>0.002553780576206225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01732339192457338</v>
+      </c>
+      <c r="E48">
+        <v>0.04301332392381589</v>
+      </c>
+      <c r="F48">
+        <v>0.09697289338723497</v>
+      </c>
+      <c r="G48">
+        <v>0.01264282954795434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08859383123946672</v>
+        <v>-0.07120166770379933</v>
       </c>
       <c r="C50">
-        <v>-0.06424688826266969</v>
+        <v>0.06942496228237841</v>
       </c>
       <c r="D50">
-        <v>0.02496729718481289</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002024377893472937</v>
+      </c>
+      <c r="E50">
+        <v>0.04765647464627688</v>
+      </c>
+      <c r="F50">
+        <v>0.06819859329724866</v>
+      </c>
+      <c r="G50">
+        <v>0.07968794265386529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.0125708639370734</v>
+        <v>-0.009529984142632904</v>
       </c>
       <c r="C51">
-        <v>-0.04816473193683114</v>
+        <v>0.03425647621938104</v>
       </c>
       <c r="D51">
-        <v>-0.005662276432679001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04773721167436849</v>
+      </c>
+      <c r="E51">
+        <v>0.01998171583834335</v>
+      </c>
+      <c r="F51">
+        <v>0.0887648378450035</v>
+      </c>
+      <c r="G51">
+        <v>-0.01118662938320122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.0960875967669112</v>
+        <v>-0.09009701513236984</v>
       </c>
       <c r="C53">
-        <v>-0.07218475513629692</v>
+        <v>0.08680306818721412</v>
       </c>
       <c r="D53">
-        <v>0.03909879351310429</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03841654551802934</v>
+      </c>
+      <c r="E53">
+        <v>0.04970043170757547</v>
+      </c>
+      <c r="F53">
+        <v>0.08744072341514018</v>
+      </c>
+      <c r="G53">
+        <v>0.06178715800575296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02926990235402681</v>
+        <v>-0.02804598433539178</v>
       </c>
       <c r="C54">
-        <v>-0.01604323208373109</v>
+        <v>0.02460872829624733</v>
       </c>
       <c r="D54">
-        <v>-0.002722532488766746</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03537255076692263</v>
+      </c>
+      <c r="E54">
+        <v>0.03649927664416858</v>
+      </c>
+      <c r="F54">
+        <v>0.09864716154226774</v>
+      </c>
+      <c r="G54">
+        <v>0.007987131296998816</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07472874566524987</v>
+        <v>-0.08138412509138507</v>
       </c>
       <c r="C55">
-        <v>-0.06874139805169134</v>
+        <v>0.07086510502934797</v>
       </c>
       <c r="D55">
-        <v>0.0454153348377289</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04635009579012277</v>
+      </c>
+      <c r="E55">
+        <v>0.04052251428489052</v>
+      </c>
+      <c r="F55">
+        <v>0.06211893206350514</v>
+      </c>
+      <c r="G55">
+        <v>0.0506476871906647</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1499879883757977</v>
+        <v>-0.1437934369693815</v>
       </c>
       <c r="C56">
-        <v>-0.09217075356362567</v>
+        <v>0.1040434918549766</v>
       </c>
       <c r="D56">
-        <v>0.04919117310767411</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04918711824724911</v>
+      </c>
+      <c r="E56">
+        <v>0.04780706660345427</v>
+      </c>
+      <c r="F56">
+        <v>0.05406207507974732</v>
+      </c>
+      <c r="G56">
+        <v>0.05727818493470549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.004942764270661441</v>
+        <v>-0.002109893325823357</v>
       </c>
       <c r="C57">
-        <v>-0.00270432138896895</v>
+        <v>0.001535533851594973</v>
       </c>
       <c r="D57">
-        <v>-0.02075864979436387</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.0168624993524674</v>
+      </c>
+      <c r="E57">
+        <v>0.008561276935182653</v>
+      </c>
+      <c r="F57">
+        <v>0.01381751776561416</v>
+      </c>
+      <c r="G57">
+        <v>0.00280637017544614</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.07020493544558992</v>
+        <v>-0.03235482282215357</v>
       </c>
       <c r="C58">
-        <v>-0.0390214230489866</v>
+        <v>0.03119629004567883</v>
       </c>
       <c r="D58">
-        <v>-0.9233608614364339</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4969148843840396</v>
+      </c>
+      <c r="E58">
+        <v>0.6927519577182178</v>
+      </c>
+      <c r="F58">
+        <v>-0.4339278030060787</v>
+      </c>
+      <c r="G58">
+        <v>-0.0679936963045365</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1320044932032279</v>
+        <v>-0.1495835677640875</v>
       </c>
       <c r="C59">
-        <v>0.205181325468351</v>
+        <v>-0.1887844749425988</v>
       </c>
       <c r="D59">
-        <v>-0.02000662942258403</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02922805266091939</v>
+      </c>
+      <c r="E59">
+        <v>0.02263087464034785</v>
+      </c>
+      <c r="F59">
+        <v>0.02190019792757196</v>
+      </c>
+      <c r="G59">
+        <v>-0.03106819084588287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3157566782483082</v>
+        <v>-0.2818685251633845</v>
       </c>
       <c r="C60">
-        <v>-0.08066419608534779</v>
+        <v>0.1015841285077413</v>
       </c>
       <c r="D60">
-        <v>-0.03968666153973868</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2110186665166744</v>
+      </c>
+      <c r="E60">
+        <v>-0.2771847269020511</v>
+      </c>
+      <c r="F60">
+        <v>-0.1255845364533087</v>
+      </c>
+      <c r="G60">
+        <v>0.04392450134872546</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03719890737064774</v>
+        <v>-0.03900853604395898</v>
       </c>
       <c r="C61">
-        <v>-0.06077050864128214</v>
+        <v>0.06051954946918271</v>
       </c>
       <c r="D61">
-        <v>-0.01320155420017564</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04669408821897283</v>
+      </c>
+      <c r="E61">
+        <v>0.02220155239515386</v>
+      </c>
+      <c r="F61">
+        <v>0.08208703203838542</v>
+      </c>
+      <c r="G61">
+        <v>0.01639381433447415</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01620050761707097</v>
+        <v>-0.01496560397802354</v>
       </c>
       <c r="C63">
-        <v>-0.03271694092019893</v>
+        <v>0.03062075075044932</v>
       </c>
       <c r="D63">
-        <v>0.007550500324365376</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02092650977870682</v>
+      </c>
+      <c r="E63">
+        <v>0.03654652259637826</v>
+      </c>
+      <c r="F63">
+        <v>0.07562180766698677</v>
+      </c>
+      <c r="G63">
+        <v>0.03183930870795824</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0493287017102654</v>
+        <v>-0.05264248820914032</v>
       </c>
       <c r="C64">
-        <v>-0.02683177105873513</v>
+        <v>0.05197771803038247</v>
       </c>
       <c r="D64">
-        <v>0.005728375155402027</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01410215715036091</v>
+      </c>
+      <c r="E64">
+        <v>0.01711997521989952</v>
+      </c>
+      <c r="F64">
+        <v>0.08653100045526028</v>
+      </c>
+      <c r="G64">
+        <v>0.00944624172592585</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.09365596090337237</v>
+        <v>-0.06716971371301333</v>
       </c>
       <c r="C65">
-        <v>-0.04864159328742304</v>
+        <v>0.04100269724661775</v>
       </c>
       <c r="D65">
-        <v>-0.02781206586955151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08213905681430585</v>
+      </c>
+      <c r="E65">
+        <v>0.03575804437882233</v>
+      </c>
+      <c r="F65">
+        <v>0.02663584668206</v>
+      </c>
+      <c r="G65">
+        <v>-0.002717092741308837</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06486926811652999</v>
+        <v>-0.04963638198182733</v>
       </c>
       <c r="C66">
-        <v>-0.107138842943964</v>
+        <v>0.09082635453046731</v>
       </c>
       <c r="D66">
-        <v>-0.02718588526965765</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07667368584624809</v>
+      </c>
+      <c r="E66">
+        <v>0.02070989040189932</v>
+      </c>
+      <c r="F66">
+        <v>0.09283168018742914</v>
+      </c>
+      <c r="G66">
+        <v>0.006794607598923492</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05871538804318595</v>
+        <v>-0.04860386596746263</v>
       </c>
       <c r="C67">
-        <v>-0.02799438305365596</v>
+        <v>0.03002331062619051</v>
       </c>
       <c r="D67">
-        <v>0.008480607133416409</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01404605615253962</v>
+      </c>
+      <c r="E67">
+        <v>0.02011576019768441</v>
+      </c>
+      <c r="F67">
+        <v>0.05763139107086289</v>
+      </c>
+      <c r="G67">
+        <v>0.0158247335423448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1170842935615563</v>
+        <v>-0.1576952387188014</v>
       </c>
       <c r="C68">
-        <v>0.2924303378041285</v>
+        <v>-0.2570199726205299</v>
       </c>
       <c r="D68">
-        <v>0.00178907805822087</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02201052445996841</v>
+      </c>
+      <c r="E68">
+        <v>0.03725582225444725</v>
+      </c>
+      <c r="F68">
+        <v>0.01653694839208948</v>
+      </c>
+      <c r="G68">
+        <v>0.006989466779342238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08657883688396194</v>
+        <v>-0.08488185475391566</v>
       </c>
       <c r="C69">
-        <v>-0.0672114502301553</v>
+        <v>0.08420940383666441</v>
       </c>
       <c r="D69">
-        <v>0.04376145590224415</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009202293049372277</v>
+      </c>
+      <c r="E69">
+        <v>0.02321312463896351</v>
+      </c>
+      <c r="F69">
+        <v>0.09520104040140166</v>
+      </c>
+      <c r="G69">
+        <v>0.02875468918910437</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1180325175601806</v>
+        <v>-0.1458182787252959</v>
       </c>
       <c r="C71">
-        <v>0.2437783631670045</v>
+        <v>-0.2318977481966986</v>
       </c>
       <c r="D71">
-        <v>-0.01148097775972422</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01182928494247116</v>
+      </c>
+      <c r="E71">
+        <v>0.05535698936296667</v>
+      </c>
+      <c r="F71">
+        <v>0.05451290184270911</v>
+      </c>
+      <c r="G71">
+        <v>0.02972048437982581</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0836683923063918</v>
+        <v>-0.09457842589437851</v>
       </c>
       <c r="C72">
-        <v>-0.04695822567864159</v>
+        <v>0.05395294497887303</v>
       </c>
       <c r="D72">
-        <v>0.02256643357537475</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01735573778617795</v>
+      </c>
+      <c r="E72">
+        <v>0.00742421317495933</v>
+      </c>
+      <c r="F72">
+        <v>0.07590095619307959</v>
+      </c>
+      <c r="G72">
+        <v>0.02393391800400374</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4423568537068736</v>
+        <v>-0.3488800705146184</v>
       </c>
       <c r="C73">
-        <v>-0.06159256866412276</v>
+        <v>0.08519369888047161</v>
       </c>
       <c r="D73">
-        <v>-0.1275997756652159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4293886894164609</v>
+      </c>
+      <c r="E73">
+        <v>-0.4779196436181264</v>
+      </c>
+      <c r="F73">
+        <v>-0.3020126948635762</v>
+      </c>
+      <c r="G73">
+        <v>0.0872738049457948</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1186612374674565</v>
+        <v>-0.1107696586370276</v>
       </c>
       <c r="C74">
-        <v>-0.1163528691900214</v>
+        <v>0.1030266500961428</v>
       </c>
       <c r="D74">
-        <v>0.04252332686215588</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02753813186335927</v>
+      </c>
+      <c r="E74">
+        <v>0.06766166530882603</v>
+      </c>
+      <c r="F74">
+        <v>0.06205202862279888</v>
+      </c>
+      <c r="G74">
+        <v>0.07465419159170966</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2608952302701958</v>
+        <v>-0.2545701869092784</v>
       </c>
       <c r="C75">
-        <v>-0.1292823033753109</v>
+        <v>0.1452147019881474</v>
       </c>
       <c r="D75">
-        <v>0.08637451185362342</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.127411258698394</v>
+      </c>
+      <c r="E75">
+        <v>0.08170812586853864</v>
+      </c>
+      <c r="F75">
+        <v>0.0267442434555651</v>
+      </c>
+      <c r="G75">
+        <v>0.07474857939456421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.12112253885518</v>
+        <v>-0.1265570173580373</v>
       </c>
       <c r="C76">
-        <v>-0.1048739264561511</v>
+        <v>0.1066015861158253</v>
       </c>
       <c r="D76">
-        <v>0.05770558891732916</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06111248291913906</v>
+      </c>
+      <c r="E76">
+        <v>0.06952500401500933</v>
+      </c>
+      <c r="F76">
+        <v>0.06833672896438779</v>
+      </c>
+      <c r="G76">
+        <v>0.06305648491423915</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0751836025892683</v>
+        <v>-0.0606741917647266</v>
       </c>
       <c r="C77">
-        <v>-0.05832561289775481</v>
+        <v>0.06911017200139599</v>
       </c>
       <c r="D77">
-        <v>-0.05019763577844198</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0632142191957982</v>
+      </c>
+      <c r="E77">
+        <v>0.06394269812062449</v>
+      </c>
+      <c r="F77">
+        <v>0.122784155284044</v>
+      </c>
+      <c r="G77">
+        <v>-0.1251954582475214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04298306228435877</v>
+        <v>-0.03993445059069971</v>
       </c>
       <c r="C78">
-        <v>-0.04334875265509085</v>
+        <v>0.05392554043369268</v>
       </c>
       <c r="D78">
-        <v>-0.01895874922702688</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07025165864071509</v>
+      </c>
+      <c r="E78">
+        <v>0.01406501197374153</v>
+      </c>
+      <c r="F78">
+        <v>0.09602621142204625</v>
+      </c>
+      <c r="G78">
+        <v>0.009969013226039823</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.01279440529314516</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0322316869708342</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04629351168379926</v>
+      </c>
+      <c r="E79">
+        <v>0.03318547394205648</v>
+      </c>
+      <c r="F79">
+        <v>0.02218357804277807</v>
+      </c>
+      <c r="G79">
+        <v>0.04176662817609985</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04975172041385207</v>
+        <v>-0.03638794797698635</v>
       </c>
       <c r="C80">
-        <v>-0.05052546540950637</v>
+        <v>0.04950933207253262</v>
       </c>
       <c r="D80">
-        <v>-0.04027880841321439</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0444611570501733</v>
+      </c>
+      <c r="E80">
+        <v>0.01270408918043452</v>
+      </c>
+      <c r="F80">
+        <v>0.03455043154757723</v>
+      </c>
+      <c r="G80">
+        <v>-0.04082117819797498</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1399491087346551</v>
+        <v>-0.1392542179386701</v>
       </c>
       <c r="C81">
-        <v>-0.08093865942376444</v>
+        <v>0.0989080824275852</v>
       </c>
       <c r="D81">
-        <v>0.04661148027407274</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09134184933105177</v>
+      </c>
+      <c r="E81">
+        <v>0.08066647701617667</v>
+      </c>
+      <c r="F81">
+        <v>0.0303243993690517</v>
+      </c>
+      <c r="G81">
+        <v>0.05825798253661863</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.07262383698045044</v>
+        <v>-0.1896419114901806</v>
       </c>
       <c r="C82">
-        <v>-0.04539425844053448</v>
+        <v>0.1394737260882006</v>
       </c>
       <c r="D82">
-        <v>0.02902114727162653</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2224572442852757</v>
+      </c>
+      <c r="E82">
+        <v>0.008151678445904026</v>
+      </c>
+      <c r="F82">
+        <v>0.07719152093199191</v>
+      </c>
+      <c r="G82">
+        <v>0.03264067405121365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02678282046506856</v>
+        <v>-0.02616296836367821</v>
       </c>
       <c r="C83">
-        <v>-0.01952213911985237</v>
+        <v>0.03642778750623932</v>
       </c>
       <c r="D83">
-        <v>-0.01962380407623206</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03449515449998634</v>
+      </c>
+      <c r="E83">
+        <v>0.006724414719464215</v>
+      </c>
+      <c r="F83">
+        <v>0.05166307006250782</v>
+      </c>
+      <c r="G83">
+        <v>-0.02146892664688571</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2391886032860618</v>
+        <v>-0.2050710680350023</v>
       </c>
       <c r="C85">
-        <v>-0.1163583027979651</v>
+        <v>0.1280906355383476</v>
       </c>
       <c r="D85">
-        <v>0.159231798197796</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1089862247271209</v>
+      </c>
+      <c r="E85">
+        <v>0.006125195574248907</v>
+      </c>
+      <c r="F85">
+        <v>-0.01739494741731988</v>
+      </c>
+      <c r="G85">
+        <v>0.1231021803241019</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009171834872435119</v>
+        <v>-0.01108323902754075</v>
       </c>
       <c r="C86">
-        <v>-0.02602718868666072</v>
+        <v>0.03220927207751742</v>
       </c>
       <c r="D86">
-        <v>-0.03740252373939711</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0776624950727552</v>
+      </c>
+      <c r="E86">
+        <v>0.04548812298040181</v>
+      </c>
+      <c r="F86">
+        <v>0.146696311560015</v>
+      </c>
+      <c r="G86">
+        <v>-0.003688482198479998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01470103571146602</v>
+        <v>-0.01975876535769934</v>
       </c>
       <c r="C87">
-        <v>-0.02374054003945069</v>
+        <v>0.01857348137161508</v>
       </c>
       <c r="D87">
-        <v>-0.08695858350672434</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09060231157572955</v>
+      </c>
+      <c r="E87">
+        <v>0.08167398178617441</v>
+      </c>
+      <c r="F87">
+        <v>0.09839169413791209</v>
+      </c>
+      <c r="G87">
+        <v>-0.02966540356775191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1026938560502346</v>
+        <v>-0.08784788208089543</v>
       </c>
       <c r="C88">
-        <v>-0.07090930180481081</v>
+        <v>0.06418608365761143</v>
       </c>
       <c r="D88">
-        <v>0.01757210152992886</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01318269424388851</v>
+      </c>
+      <c r="E88">
+        <v>0.02953134524905122</v>
+      </c>
+      <c r="F88">
+        <v>0.07380955154734165</v>
+      </c>
+      <c r="G88">
+        <v>-0.02797081805225848</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1860884752670495</v>
+        <v>-0.229090012767246</v>
       </c>
       <c r="C89">
-        <v>0.3777512675645432</v>
+        <v>-0.3782317487774103</v>
       </c>
       <c r="D89">
-        <v>0.02898073217529245</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02231870576070692</v>
+      </c>
+      <c r="E89">
+        <v>0.03004667449581264</v>
+      </c>
+      <c r="F89">
+        <v>0.1008497569455083</v>
+      </c>
+      <c r="G89">
+        <v>-0.06723672917570159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1734928891308314</v>
+        <v>-0.2075655078284248</v>
       </c>
       <c r="C90">
-        <v>0.3502421033802261</v>
+        <v>-0.3176933906273132</v>
       </c>
       <c r="D90">
-        <v>-0.001390483583553301</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01549227283023489</v>
+      </c>
+      <c r="E90">
+        <v>0.06155755975696522</v>
+      </c>
+      <c r="F90">
+        <v>0.05414848602727459</v>
+      </c>
+      <c r="G90">
+        <v>-0.01292690621312195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.203358596807047</v>
+        <v>-0.1889344777630163</v>
       </c>
       <c r="C91">
-        <v>-0.1136702183491037</v>
+        <v>0.1419824133706643</v>
       </c>
       <c r="D91">
-        <v>0.07492545215166088</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1042177963656097</v>
+      </c>
+      <c r="E91">
+        <v>0.07271886407501685</v>
+      </c>
+      <c r="F91">
+        <v>0.04606254532101051</v>
+      </c>
+      <c r="G91">
+        <v>0.06229888922844129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1666106715790953</v>
+        <v>-0.1871316773400399</v>
       </c>
       <c r="C92">
-        <v>0.28176504343075</v>
+        <v>-0.2756475051343868</v>
       </c>
       <c r="D92">
-        <v>0.02688175380832954</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.009953720167828976</v>
+      </c>
+      <c r="E92">
+        <v>0.07064957559290941</v>
+      </c>
+      <c r="F92">
+        <v>0.0733135344313342</v>
+      </c>
+      <c r="G92">
+        <v>-0.008034804238511351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1931525514989042</v>
+        <v>-0.2293637616627499</v>
       </c>
       <c r="C93">
-        <v>0.3436454696706117</v>
+        <v>-0.3137118380998603</v>
       </c>
       <c r="D93">
-        <v>5.524397323802697e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004005133223265533</v>
+      </c>
+      <c r="E93">
+        <v>0.04893509657905045</v>
+      </c>
+      <c r="F93">
+        <v>0.04216602622048974</v>
+      </c>
+      <c r="G93">
+        <v>0.0294180706646371</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.292653980844407</v>
+        <v>-0.3385647452106543</v>
       </c>
       <c r="C94">
-        <v>-0.1496920304768513</v>
+        <v>0.2031663639745942</v>
       </c>
       <c r="D94">
-        <v>0.1524924197369795</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4729453239061412</v>
+      </c>
+      <c r="E94">
+        <v>0.1686119512600606</v>
+      </c>
+      <c r="F94">
+        <v>-0.4308198313706447</v>
+      </c>
+      <c r="G94">
+        <v>-0.3185349372922704</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08716227077661606</v>
+        <v>-0.08198795063939554</v>
       </c>
       <c r="C95">
-        <v>-0.07378572395182235</v>
+        <v>0.07708170460805307</v>
       </c>
       <c r="D95">
-        <v>-0.06257803526837735</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1509198493668738</v>
+      </c>
+      <c r="E95">
+        <v>-0.1346735531151364</v>
+      </c>
+      <c r="F95">
+        <v>0.2166612629686281</v>
+      </c>
+      <c r="G95">
+        <v>-0.8732453384120694</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.205671649393611</v>
+        <v>-0.1892633125803436</v>
       </c>
       <c r="C98">
-        <v>-0.01857501046388405</v>
+        <v>0.04121664021966374</v>
       </c>
       <c r="D98">
-        <v>-0.06274675542075989</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1758248606833777</v>
+      </c>
+      <c r="E98">
+        <v>-0.1548000550073484</v>
+      </c>
+      <c r="F98">
+        <v>-0.04746815270609638</v>
+      </c>
+      <c r="G98">
+        <v>0.1041955579005537</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01149393730904059</v>
+        <v>-0.006337342406132624</v>
       </c>
       <c r="C101">
-        <v>-0.02485403248213629</v>
+        <v>0.02474978674441465</v>
       </c>
       <c r="D101">
-        <v>0.01773281089621453</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0192111322131815</v>
+      </c>
+      <c r="E101">
+        <v>0.0282054848149856</v>
+      </c>
+      <c r="F101">
+        <v>0.08641608641375248</v>
+      </c>
+      <c r="G101">
+        <v>0.008114554977631593</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1210718110986234</v>
+        <v>-0.1213305762970435</v>
       </c>
       <c r="C102">
-        <v>-0.07334894160965517</v>
+        <v>0.1006084665381473</v>
       </c>
       <c r="D102">
-        <v>0.045417418678299</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05014278765838991</v>
+      </c>
+      <c r="E102">
+        <v>-0.0105884002243429</v>
+      </c>
+      <c r="F102">
+        <v>0.03941593004282047</v>
+      </c>
+      <c r="G102">
+        <v>0.02433802260145986</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
